--- a/backend/static/Отчет_ПС_new.xlsx
+++ b/backend/static/Отчет_ПС_new.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" tabRatio="402" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -861,7 +861,11 @@
       <c r="U5" s="8" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="33" t="n"/>
+      <c r="A6" s="33" t="inlineStr">
+        <is>
+          <t>Сети 2</t>
+        </is>
+      </c>
       <c r="P6" s="25" t="n"/>
       <c r="Q6" s="25" t="n"/>
       <c r="U6" s="25" t="n"/>
@@ -869,7 +873,47 @@
       <c r="AM6" s="25" t="n"/>
     </row>
     <row r="7" ht="12.75" customHeight="1" s="20">
-      <c r="A7" s="33" t="n"/>
+      <c r="A7" s="25" t="n"/>
+      <c r="B7" s="25" t="n">
+        <v>636</v>
+      </c>
+      <c r="C7" s="25" t="inlineStr">
+        <is>
+          <t>ПС-10</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="inlineStr">
+        <is>
+          <t>110/35/10</t>
+        </is>
+      </c>
+      <c r="E7" s="25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>949</v>
+      </c>
+      <c r="G7" s="25" t="inlineStr">
+        <is>
+          <t>ТМТН</t>
+        </is>
+      </c>
+      <c r="H7" s="25" t="n"/>
+      <c r="I7" s="25" t="n"/>
+      <c r="J7" s="25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="K7" s="25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="L7" s="25" t="n"/>
+      <c r="M7" s="25" t="inlineStr">
+        <is>
+          <t>удов</t>
+        </is>
+      </c>
+      <c r="N7" s="25" t="n"/>
+      <c r="O7" s="25" t="n"/>
       <c r="P7" s="25" t="n"/>
       <c r="Q7" s="25" t="n"/>
       <c r="U7" s="25" t="n"/>
@@ -878,42 +922,26 @@
     </row>
     <row r="8" ht="12.75" customHeight="1" s="20">
       <c r="A8" s="25" t="n"/>
-      <c r="B8" s="25" t="n">
-        <v>676</v>
-      </c>
-      <c r="C8" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 110 кВ ПС-1 </t>
-        </is>
-      </c>
-      <c r="D8" s="25" t="inlineStr">
-        <is>
-          <t>110/6</t>
-        </is>
-      </c>
-      <c r="E8" s="25" t="n">
-        <v>1956</v>
-      </c>
       <c r="F8" s="25" t="n">
-        <v>1027</v>
+        <v>950</v>
       </c>
       <c r="G8" s="25" t="inlineStr">
         <is>
-          <t>ТРДЦН</t>
+          <t>ТМТН</t>
         </is>
       </c>
       <c r="H8" s="25" t="n"/>
       <c r="I8" s="25" t="n"/>
       <c r="J8" s="25" t="n">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="K8" s="25" t="n">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="L8" s="25" t="n"/>
       <c r="M8" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N8" s="25" t="n"/>
@@ -926,26 +954,42 @@
     </row>
     <row r="9" ht="12.75" customHeight="1" s="20">
       <c r="A9" s="25" t="n"/>
+      <c r="B9" s="25" t="n">
+        <v>637</v>
+      </c>
+      <c r="C9" s="25" t="inlineStr">
+        <is>
+          <t>ПС-11</t>
+        </is>
+      </c>
+      <c r="D9" s="25" t="inlineStr">
+        <is>
+          <t>110/10</t>
+        </is>
+      </c>
+      <c r="E9" s="25" t="n">
+        <v>1978</v>
+      </c>
       <c r="F9" s="25" t="n">
-        <v>1028</v>
+        <v>951</v>
       </c>
       <c r="G9" s="25" t="inlineStr">
         <is>
-          <t>ТДТНГ</t>
+          <t>ТМН</t>
         </is>
       </c>
       <c r="H9" s="25" t="n"/>
       <c r="I9" s="25" t="n"/>
       <c r="J9" s="25" t="n">
-        <v>1960</v>
+        <v>1978</v>
       </c>
       <c r="K9" s="25" t="n">
-        <v>1960</v>
+        <v>1978</v>
       </c>
       <c r="L9" s="25" t="n"/>
       <c r="M9" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N9" s="25" t="n"/>
@@ -959,25 +1003,25 @@
     <row r="10">
       <c r="A10" s="25" t="n"/>
       <c r="F10" s="25" t="n">
-        <v>1029</v>
+        <v>952</v>
       </c>
       <c r="G10" s="25" t="inlineStr">
         <is>
-          <t>ТДТН</t>
+          <t>ТМН</t>
         </is>
       </c>
       <c r="H10" s="25" t="n"/>
       <c r="I10" s="25" t="n"/>
       <c r="J10" s="25" t="n">
-        <v>1960</v>
+        <v>1981</v>
       </c>
       <c r="K10" s="25" t="n">
-        <v>1960</v>
+        <v>1988</v>
       </c>
       <c r="L10" s="25" t="n"/>
       <c r="M10" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N10" s="25" t="n"/>
@@ -991,41 +1035,41 @@
     <row r="11" ht="12.75" customHeight="1" s="20">
       <c r="A11" s="25" t="n"/>
       <c r="B11" s="25" t="n">
-        <v>677</v>
+        <v>638</v>
       </c>
       <c r="C11" s="25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПС 110 кВ ПС-2 </t>
+          <t>ПС-12</t>
         </is>
       </c>
       <c r="D11" s="25" t="inlineStr">
         <is>
-          <t>110/6</t>
+          <t>110/10</t>
         </is>
       </c>
       <c r="E11" s="25" t="n">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="F11" s="25" t="n">
-        <v>1030</v>
+        <v>953</v>
       </c>
       <c r="G11" s="25" t="inlineStr">
         <is>
-          <t>ТРДН(С)</t>
+          <t>ТДН</t>
         </is>
       </c>
       <c r="H11" s="25" t="n"/>
       <c r="I11" s="25" t="n"/>
       <c r="J11" s="25" t="n">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K11" s="25" t="n">
-        <v>1978</v>
+        <v>1988</v>
       </c>
       <c r="L11" s="25" t="n"/>
       <c r="M11" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N11" s="25" t="n"/>
@@ -1039,25 +1083,25 @@
     <row r="12" ht="12.2" customHeight="1" s="20">
       <c r="A12" s="25" t="n"/>
       <c r="F12" s="25" t="n">
-        <v>1031</v>
+        <v>954</v>
       </c>
       <c r="G12" s="25" t="inlineStr">
         <is>
-          <t>ТРДН(С)</t>
+          <t>ТДН</t>
         </is>
       </c>
       <c r="H12" s="25" t="n"/>
       <c r="I12" s="25" t="n"/>
       <c r="J12" s="25" t="n">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="K12" s="25" t="n">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="L12" s="25" t="n"/>
       <c r="M12" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N12" s="25" t="n"/>
@@ -1071,23 +1115,23 @@
     <row r="13">
       <c r="A13" s="25" t="n"/>
       <c r="B13" s="25" t="n">
-        <v>678</v>
+        <v>639</v>
       </c>
       <c r="C13" s="25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПС 110 кВ ПС-3 </t>
+          <t>ПС-13</t>
         </is>
       </c>
       <c r="D13" s="25" t="inlineStr">
         <is>
-          <t>110/35/6</t>
+          <t>110/35/10</t>
         </is>
       </c>
       <c r="E13" s="25" t="n">
-        <v>1934</v>
+        <v>1974</v>
       </c>
       <c r="F13" s="25" t="n">
-        <v>1032</v>
+        <v>955</v>
       </c>
       <c r="G13" s="25" t="inlineStr">
         <is>
@@ -1097,15 +1141,15 @@
       <c r="H13" s="25" t="n"/>
       <c r="I13" s="25" t="n"/>
       <c r="J13" s="25" t="n">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="K13" s="25" t="n">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="L13" s="25" t="n"/>
       <c r="M13" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>в зоне риска</t>
         </is>
       </c>
       <c r="N13" s="25" t="n"/>
@@ -1119,7 +1163,7 @@
     <row r="14">
       <c r="A14" s="25" t="n"/>
       <c r="F14" s="25" t="n">
-        <v>1033</v>
+        <v>956</v>
       </c>
       <c r="G14" s="25" t="inlineStr">
         <is>
@@ -1129,15 +1173,15 @@
       <c r="H14" s="25" t="n"/>
       <c r="I14" s="25" t="n"/>
       <c r="J14" s="25" t="n">
-        <v>1985</v>
+        <v>1975</v>
       </c>
       <c r="K14" s="25" t="n">
-        <v>1985</v>
+        <v>1975</v>
       </c>
       <c r="L14" s="25" t="n"/>
       <c r="M14" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>в зоне риска</t>
         </is>
       </c>
       <c r="N14" s="25" t="n"/>
@@ -1151,41 +1195,41 @@
     <row r="15" ht="14.25" customHeight="1" s="20">
       <c r="A15" s="25" t="n"/>
       <c r="B15" s="25" t="n">
-        <v>679</v>
+        <v>640</v>
       </c>
       <c r="C15" s="25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПС 110 кВ ПС-4 </t>
+          <t>ПС-14</t>
         </is>
       </c>
       <c r="D15" s="25" t="inlineStr">
         <is>
-          <t>110/35/6</t>
+          <t>110/10</t>
         </is>
       </c>
       <c r="E15" s="25" t="n">
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="F15" s="25" t="n">
-        <v>1034</v>
+        <v>957</v>
       </c>
       <c r="G15" s="25" t="inlineStr">
         <is>
-          <t>ТДТН</t>
+          <t>ТМТН</t>
         </is>
       </c>
       <c r="H15" s="25" t="n"/>
       <c r="I15" s="25" t="n"/>
       <c r="J15" s="25" t="n">
-        <v>1975</v>
+        <v>1981</v>
       </c>
       <c r="K15" s="25" t="n">
-        <v>1975</v>
+        <v>1984</v>
       </c>
       <c r="L15" s="25" t="n"/>
       <c r="M15" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N15" s="25" t="n"/>
@@ -1199,25 +1243,25 @@
     <row r="16">
       <c r="A16" s="25" t="n"/>
       <c r="F16" s="25" t="n">
-        <v>1035</v>
+        <v>958</v>
       </c>
       <c r="G16" s="25" t="inlineStr">
         <is>
-          <t>ТДТН</t>
+          <t>ТМТН</t>
         </is>
       </c>
       <c r="H16" s="25" t="n"/>
       <c r="I16" s="25" t="n"/>
       <c r="J16" s="25" t="n">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="K16" s="25" t="n">
-        <v>1979</v>
+        <v>1988</v>
       </c>
       <c r="L16" s="25" t="n"/>
       <c r="M16" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N16" s="25" t="n"/>
@@ -1231,41 +1275,41 @@
     <row r="17">
       <c r="A17" s="25" t="n"/>
       <c r="B17" s="25" t="n">
-        <v>680</v>
+        <v>641</v>
       </c>
       <c r="C17" s="25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПС 110 кВПС-5 </t>
+          <t>ПС-15</t>
         </is>
       </c>
       <c r="D17" s="25" t="inlineStr">
         <is>
-          <t>110/35/6</t>
+          <t>110/10</t>
         </is>
       </c>
       <c r="E17" s="25" t="n">
-        <v>1957</v>
+        <v>1985</v>
       </c>
       <c r="F17" s="25" t="n">
-        <v>1036</v>
+        <v>959</v>
       </c>
       <c r="G17" s="25" t="inlineStr">
         <is>
-          <t>ТДТН</t>
+          <t>ТМН</t>
         </is>
       </c>
       <c r="H17" s="25" t="n"/>
       <c r="I17" s="25" t="n"/>
       <c r="J17" s="25" t="n">
-        <v>1968</v>
+        <v>1983</v>
       </c>
       <c r="K17" s="25" t="n">
-        <v>1968</v>
+        <v>1985</v>
       </c>
       <c r="L17" s="25" t="n"/>
       <c r="M17" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N17" s="25" t="n"/>
@@ -1278,26 +1322,42 @@
     </row>
     <row r="18">
       <c r="A18" s="25" t="n"/>
+      <c r="B18" s="25" t="n">
+        <v>642</v>
+      </c>
+      <c r="C18" s="25" t="inlineStr">
+        <is>
+          <t>ПС-16</t>
+        </is>
+      </c>
+      <c r="D18" s="25" t="inlineStr">
+        <is>
+          <t>110/10</t>
+        </is>
+      </c>
+      <c r="E18" s="25" t="n">
+        <v>1989</v>
+      </c>
       <c r="F18" s="25" t="n">
-        <v>1037</v>
+        <v>960</v>
       </c>
       <c r="G18" s="25" t="inlineStr">
         <is>
-          <t>ТДТН</t>
+          <t>ТМН</t>
         </is>
       </c>
       <c r="H18" s="25" t="n"/>
       <c r="I18" s="25" t="n"/>
       <c r="J18" s="25" t="n">
-        <v>1969</v>
+        <v>1989</v>
       </c>
       <c r="K18" s="25" t="n">
-        <v>1969</v>
+        <v>1989</v>
       </c>
       <c r="L18" s="25" t="n"/>
       <c r="M18" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N18" s="25" t="n"/>
@@ -1311,41 +1371,41 @@
     <row r="19">
       <c r="A19" s="25" t="n"/>
       <c r="B19" s="25" t="n">
-        <v>681</v>
+        <v>643</v>
       </c>
       <c r="C19" s="25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПС 110 кВ ПС-56 </t>
+          <t>ПС-17</t>
         </is>
       </c>
       <c r="D19" s="25" t="inlineStr">
         <is>
-          <t>110/6</t>
+          <t>110/35/10</t>
         </is>
       </c>
       <c r="E19" s="25" t="n">
-        <v>1953</v>
+        <v>1980</v>
       </c>
       <c r="F19" s="25" t="n">
-        <v>1038</v>
+        <v>961</v>
       </c>
       <c r="G19" s="25" t="inlineStr">
         <is>
-          <t>ТДН</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="H19" s="25" t="n"/>
       <c r="I19" s="25" t="n"/>
       <c r="J19" s="25" t="n">
-        <v>1991</v>
+        <v>1980</v>
       </c>
       <c r="K19" s="25" t="n">
-        <v>1991</v>
+        <v>1980</v>
       </c>
       <c r="L19" s="25" t="n"/>
       <c r="M19" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N19" s="25" t="n"/>
@@ -1359,25 +1419,25 @@
     <row r="20">
       <c r="A20" s="25" t="n"/>
       <c r="F20" s="25" t="n">
-        <v>1039</v>
+        <v>962</v>
       </c>
       <c r="G20" s="25" t="inlineStr">
         <is>
-          <t>ТМ</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="H20" s="25" t="n"/>
       <c r="I20" s="25" t="n"/>
       <c r="J20" s="25" t="n">
-        <v>1967</v>
+        <v>1983</v>
       </c>
       <c r="K20" s="25" t="n">
-        <v>1967</v>
+        <v>1983</v>
       </c>
       <c r="L20" s="25" t="n"/>
       <c r="M20" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N20" s="25" t="n"/>
@@ -1391,41 +1451,41 @@
     <row r="21">
       <c r="A21" s="25" t="n"/>
       <c r="B21" s="25" t="n">
-        <v>682</v>
+        <v>644</v>
       </c>
       <c r="C21" s="25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПС 110 кВ Черновская </t>
+          <t>ПС-18</t>
         </is>
       </c>
       <c r="D21" s="25" t="inlineStr">
         <is>
-          <t>110/35/6</t>
+          <t>110/35/10</t>
         </is>
       </c>
       <c r="E21" s="25" t="n">
-        <v>1934</v>
+        <v>1980</v>
       </c>
       <c r="F21" s="25" t="n">
-        <v>1040</v>
+        <v>963</v>
       </c>
       <c r="G21" s="25" t="inlineStr">
         <is>
-          <t>ТДТН</t>
+          <t>ТМТН</t>
         </is>
       </c>
       <c r="H21" s="25" t="n"/>
       <c r="I21" s="25" t="n"/>
       <c r="J21" s="25" t="n">
-        <v>1971</v>
+        <v>1982</v>
       </c>
       <c r="K21" s="25" t="n">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="L21" s="25" t="n"/>
       <c r="M21" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N21" s="25" t="n"/>
@@ -1439,25 +1499,25 @@
     <row r="22">
       <c r="A22" s="25" t="n"/>
       <c r="F22" s="25" t="n">
-        <v>1041</v>
+        <v>964</v>
       </c>
       <c r="G22" s="25" t="inlineStr">
         <is>
-          <t>ТДЦТН</t>
+          <t>ТМТН</t>
         </is>
       </c>
       <c r="H22" s="25" t="n"/>
       <c r="I22" s="25" t="n"/>
       <c r="J22" s="25" t="n">
-        <v>2013</v>
+        <v>1980</v>
       </c>
       <c r="K22" s="25" t="n">
-        <v>2015</v>
+        <v>1980</v>
       </c>
       <c r="L22" s="25" t="n"/>
       <c r="M22" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов</t>
         </is>
       </c>
       <c r="N22" s="25" t="n"/>
@@ -1467,31 +1527,11 @@
       <c r="AM22" s="25" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="n"/>
-      <c r="F23" s="25" t="n">
-        <v>1042</v>
-      </c>
-      <c r="G23" s="25" t="inlineStr">
-        <is>
-          <t>ТДЦТН</t>
-        </is>
-      </c>
-      <c r="H23" s="25" t="n"/>
-      <c r="I23" s="25" t="n"/>
-      <c r="J23" s="25" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K23" s="25" t="n">
-        <v>2017</v>
-      </c>
-      <c r="L23" s="25" t="n"/>
-      <c r="M23" s="25" t="inlineStr">
-        <is>
-          <t>допустимо в соответствии с ГОСТ</t>
-        </is>
-      </c>
-      <c r="N23" s="25" t="n"/>
-      <c r="O23" s="25" t="n"/>
+      <c r="A23" s="33" t="inlineStr">
+        <is>
+          <t>Сети 1</t>
+        </is>
+      </c>
       <c r="P23" s="25" t="n"/>
       <c r="AI23" s="25" t="n"/>
       <c r="AM23" s="25" t="n"/>
@@ -1499,41 +1539,41 @@
     <row r="24">
       <c r="A24" s="25" t="n"/>
       <c r="B24" s="25" t="n">
-        <v>683</v>
+        <v>627</v>
       </c>
       <c r="C24" s="25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПС 110 кВ ПС-7-2 </t>
+          <t>ПС-1</t>
         </is>
       </c>
       <c r="D24" s="25" t="inlineStr">
         <is>
-          <t>110/10</t>
+          <t>110/11</t>
         </is>
       </c>
       <c r="E24" s="25" t="n">
-        <v>1986</v>
+        <v>1995</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>1043</v>
+        <v>932</v>
       </c>
       <c r="G24" s="25" t="inlineStr">
         <is>
-          <t>ТМН</t>
+          <t>ТДТН123</t>
         </is>
       </c>
       <c r="H24" s="25" t="n"/>
       <c r="I24" s="25" t="n"/>
       <c r="J24" s="25" t="n">
-        <v>1986</v>
+        <v>2008</v>
       </c>
       <c r="K24" s="25" t="n">
-        <v>1986</v>
+        <v>2010</v>
       </c>
       <c r="L24" s="25" t="n"/>
       <c r="M24" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N24" s="25" t="n"/>
@@ -1544,552 +1584,548 @@
     </row>
     <row r="25">
       <c r="A25" s="25" t="n"/>
+      <c r="B25" s="25" t="n">
+        <v>628</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ПС-2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>110/10/6</t>
+        </is>
+      </c>
+      <c r="E25" s="25" t="n">
+        <v>2010</v>
+      </c>
       <c r="F25" t="n">
-        <v>1044</v>
+        <v>933</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ТМН</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1986</v>
+        <v>2009</v>
       </c>
       <c r="K25" t="n">
-        <v>1986</v>
+        <v>2010</v>
       </c>
       <c r="M25" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N25" s="25" t="n"/>
     </row>
     <row r="26" ht="14.45" customHeight="1" s="20">
       <c r="A26" s="25" t="n"/>
-      <c r="B26" s="25" t="n">
-        <v>684</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 110 кВ ПС-8 </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>110/6</t>
-        </is>
-      </c>
-      <c r="E26" s="25" t="n">
-        <v>2008</v>
-      </c>
       <c r="F26" t="n">
-        <v>1045</v>
+        <v>934</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ТРДН</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K26" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="M26" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="25" t="n"/>
+      <c r="B27" s="25" t="n">
+        <v>629</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ПС-3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>110/35/6</t>
+        </is>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>1965</v>
+      </c>
       <c r="F27" t="n">
-        <v>1046</v>
+        <v>935</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ТРДН</t>
+          <t>ТДТНГУ</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2007</v>
+        <v>1964</v>
       </c>
       <c r="K27" t="n">
-        <v>2007</v>
+        <v>1965</v>
       </c>
       <c r="M27" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов.</t>
         </is>
       </c>
       <c r="N27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="25" t="n"/>
-      <c r="B28" s="25" t="n">
-        <v>685</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 110 кВ ПС-9 </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>110/10</t>
-        </is>
-      </c>
-      <c r="E28" s="25" t="n">
-        <v>1990</v>
-      </c>
       <c r="F28" t="n">
-        <v>1047</v>
+        <v>936</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ТРДН(С)</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1990</v>
+        <v>1982</v>
       </c>
       <c r="K28" t="n">
-        <v>1990</v>
+        <v>2011</v>
       </c>
       <c r="M28" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов.</t>
         </is>
       </c>
       <c r="N28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="25" t="n"/>
+      <c r="B29" s="25" t="n">
+        <v>630</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ПС-4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>110/6</t>
+        </is>
+      </c>
+      <c r="E29" s="25" t="n">
+        <v>1971</v>
+      </c>
       <c r="F29" t="n">
-        <v>1048</v>
+        <v>937</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ТРДН(С)</t>
+          <t>ТРДН</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1990</v>
+        <v>1971</v>
       </c>
       <c r="K29" t="n">
-        <v>1990</v>
+        <v>1971</v>
       </c>
       <c r="M29" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов.</t>
         </is>
       </c>
       <c r="N29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="25" t="n"/>
-      <c r="B30" s="25" t="n">
-        <v>686</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 35 кВ Гор-10 </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="E30" s="25" t="n">
-        <v>1960</v>
-      </c>
       <c r="F30" t="n">
-        <v>1049</v>
+        <v>938</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ТМ</t>
+          <t>ТРДН</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1988</v>
+        <v>1972</v>
       </c>
       <c r="K30" t="n">
-        <v>1989</v>
+        <v>1972</v>
       </c>
       <c r="M30" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов.</t>
         </is>
       </c>
       <c r="N30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="25" t="n"/>
+      <c r="B31" s="25" t="n">
+        <v>631</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ПС-5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>110/6</t>
+        </is>
+      </c>
+      <c r="E31" s="25" t="n">
+        <v>1970</v>
+      </c>
       <c r="F31" t="n">
-        <v>1050</v>
+        <v>939</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ТМ</t>
+          <t>ТДН</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="K31" t="n">
-        <v>2012</v>
+        <v>1972</v>
       </c>
       <c r="M31" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов.</t>
         </is>
       </c>
       <c r="N31" s="25" t="n"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" s="20">
       <c r="A32" s="25" t="n"/>
-      <c r="B32" s="25" t="n">
-        <v>687</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 35 кВ Гор-11 </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>35/6</t>
-        </is>
-      </c>
-      <c r="E32" s="25" t="n">
-        <v>1978</v>
-      </c>
       <c r="F32" t="n">
-        <v>1051</v>
+        <v>940</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ТМ</t>
+          <t>ТДН</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="K32" t="n">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="M32" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удов.</t>
         </is>
       </c>
       <c r="N32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="25" t="n"/>
+      <c r="B33" s="25" t="n">
+        <v>632</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ПС-6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>110/10/6</t>
+        </is>
+      </c>
+      <c r="E33" s="25" t="n">
+        <v>2005</v>
+      </c>
       <c r="F33" t="n">
-        <v>1052</v>
+        <v>941</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ТМ</t>
+          <t>ТРДН</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1972</v>
+        <v>2005</v>
       </c>
       <c r="K33" t="n">
-        <v>1978</v>
+        <v>2005</v>
       </c>
       <c r="M33" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="25" t="n"/>
-      <c r="B34" s="25" t="n">
-        <v>688</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 35 кВ Электрическая 1/2 </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>35/6</t>
-        </is>
-      </c>
-      <c r="E34" s="25" t="n">
-        <v>1967</v>
-      </c>
       <c r="F34" t="n">
-        <v>1053</v>
+        <v>942</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ТРДН(С)</t>
+          <t>ТРДН</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1991</v>
+        <v>2005</v>
       </c>
       <c r="K34" t="n">
-        <v>1992</v>
+        <v>2005</v>
       </c>
       <c r="M34" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="25" t="n"/>
+      <c r="B35" s="25" t="n">
+        <v>633</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ПС-7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>110/6</t>
+        </is>
+      </c>
+      <c r="E35" s="25" t="n">
+        <v>2011</v>
+      </c>
       <c r="F35" t="n">
-        <v>1054</v>
+        <v>943</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ТРДН(С)</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1991</v>
+        <v>2011</v>
       </c>
       <c r="K35" t="n">
-        <v>1993</v>
+        <v>2011</v>
       </c>
       <c r="M35" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="25" t="n"/>
-      <c r="B36" s="25" t="n">
-        <v>689</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 35 кВ Электрическая 3/4 </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>35/6</t>
-        </is>
-      </c>
-      <c r="E36" s="25" t="n">
-        <v>1954</v>
-      </c>
       <c r="F36" t="n">
-        <v>1055</v>
+        <v>944</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ТД</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1958</v>
+        <v>2011</v>
       </c>
       <c r="K36" t="n">
-        <v>1959</v>
+        <v>2011</v>
       </c>
       <c r="M36" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="25" t="n"/>
+      <c r="B37" s="25" t="n">
+        <v>634</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ПС-8</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>110/10</t>
+        </is>
+      </c>
+      <c r="E37" s="25" t="n">
+        <v>1986</v>
+      </c>
       <c r="F37" t="n">
-        <v>1056</v>
+        <v>945</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ТД</t>
+          <t>ТРДН</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="K37" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="M37" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N37" s="25" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="25" t="n"/>
-      <c r="B38" s="25" t="n">
-        <v>690</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 35 кВ Заводская </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>35/10</t>
-        </is>
-      </c>
-      <c r="E38" s="25" t="n">
-        <v>1979</v>
-      </c>
       <c r="F38" t="n">
-        <v>1057</v>
+        <v>946</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ТМ</t>
+          <t>ТРДН</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="K38" t="n">
-        <v>1979</v>
+        <v>1986</v>
       </c>
       <c r="M38" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>удовл.</t>
         </is>
       </c>
       <c r="N38" s="25" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="25" t="n"/>
+      <c r="B39" s="25" t="n">
+        <v>635</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ПС-9</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>110/10/6</t>
+        </is>
+      </c>
+      <c r="E39" s="25" t="n">
+        <v>2007</v>
+      </c>
       <c r="F39" t="n">
-        <v>1058</v>
+        <v>947</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ТМН</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1979</v>
+        <v>2006</v>
       </c>
       <c r="K39" t="n">
-        <v>1979</v>
+        <v>2007</v>
       </c>
       <c r="M39" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N39" s="25" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="25" t="n"/>
-      <c r="B40" s="25" t="n">
-        <v>691</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПС 35 кВ  водозабор </t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>35/6</t>
-        </is>
-      </c>
-      <c r="E40" s="25" t="n">
-        <v>2003</v>
-      </c>
       <c r="F40" t="n">
-        <v>1059</v>
+        <v>948</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ТМ</t>
+          <t>ТДТН</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="K40" t="n">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="M40" s="25" t="inlineStr">
         <is>
-          <t>допустимо в соответствии с ГОСТ</t>
+          <t>хор.</t>
         </is>
       </c>
       <c r="N40" s="25" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="25" t="n"/>
-      <c r="F41" t="n">
-        <v>1060</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>ТМ</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>2003</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2003</v>
-      </c>
-      <c r="M41" s="25" t="inlineStr">
-        <is>
-          <t>допустимо в соответствии с ГОСТ</t>
-        </is>
-      </c>
+      <c r="B41" s="25" t="n"/>
+      <c r="E41" s="25" t="n"/>
+      <c r="M41" s="25" t="n"/>
       <c r="N41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="33" t="n"/>
+      <c r="A42" s="25" t="n"/>
+      <c r="B42" s="25" t="n"/>
+      <c r="E42" s="25" t="n"/>
+      <c r="M42" s="25" t="n"/>
+      <c r="N42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="33" t="inlineStr">
-        <is>
-          <t>Сети 1</t>
-        </is>
-      </c>
+      <c r="A43" s="25" t="n"/>
+      <c r="B43" s="25" t="n"/>
+      <c r="E43" s="25" t="n"/>
+      <c r="M43" s="25" t="n"/>
+      <c r="N43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="33" t="inlineStr">
-        <is>
-          <t>Сети 2</t>
-        </is>
-      </c>
+      <c r="A44" s="25" t="n"/>
+      <c r="B44" s="25" t="n"/>
+      <c r="E44" s="25" t="n"/>
+      <c r="M44" s="25" t="n"/>
+      <c r="N44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="33" t="inlineStr">
-        <is>
-          <t>Сети 3</t>
-        </is>
-      </c>
+      <c r="A45" s="25" t="n"/>
+      <c r="B45" s="25" t="n"/>
+      <c r="E45" s="25" t="n"/>
+      <c r="M45" s="25" t="n"/>
+      <c r="N45" s="25" t="n"/>
     </row>
     <row r="46" ht="12.95" customHeight="1" s="20">
-      <c r="A46" s="33" t="n"/>
+      <c r="A46" s="25" t="n"/>
+      <c r="B46" s="25" t="n"/>
+      <c r="E46" s="25" t="n"/>
+      <c r="M46" s="25" t="n"/>
+      <c r="N46" s="25" t="n"/>
     </row>
     <row r="47" ht="14.25" customHeight="1" s="20">
-      <c r="A47" s="33" t="n"/>
+      <c r="A47" s="25" t="n"/>
+      <c r="B47" s="25" t="n"/>
+      <c r="E47" s="25" t="n"/>
+      <c r="M47" s="25" t="n"/>
+      <c r="N47" s="25" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="25" t="n"/>
@@ -2183,7 +2219,7 @@
       <c r="N60" s="25" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="79">
+  <mergeCells count="81">
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="A4:A5"/>
@@ -2192,11 +2228,14 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A6:O6"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
@@ -2209,60 +2248,59 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="D17"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="B18"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="E18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A42:O42"/>
-    <mergeCell ref="A43:O43"/>
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A45:O45"/>
-    <mergeCell ref="A46:O46"/>
-    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="B24"/>
+    <mergeCell ref="C24"/>
+    <mergeCell ref="D24"/>
+    <mergeCell ref="E24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <conditionalFormatting sqref="N1:O5 N61:O1048576">
     <cfRule type="cellIs" priority="5" operator="greaterThan" dxfId="0">
